--- a/docs/cda-logical-model/StructureDefinition-Observation.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="224">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,7 +91,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -404,7 +408,7 @@
     <t>Observation.subject.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -1033,42 +1037,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.58984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.58984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="51.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="50.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1212,13 +1216,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1269,13 +1273,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1284,15 +1288,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1315,7 +1319,7 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1344,11 +1348,11 @@
         <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>72</v>
@@ -1366,7 +1370,7 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
@@ -1386,10 +1390,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1412,7 +1416,7 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1465,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1485,10 +1489,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1496,7 +1500,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
@@ -1511,7 +1515,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1564,10 +1568,10 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
@@ -1584,10 +1588,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1595,10 +1599,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1610,7 +1614,7 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1663,13 +1667,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1683,10 +1687,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1694,7 +1698,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -1709,7 +1713,7 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1762,10 +1766,10 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>73</v>
@@ -1782,10 +1786,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1793,10 +1797,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1808,11 +1812,11 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1863,13 +1867,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1883,10 +1887,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1894,10 +1898,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>72</v>
@@ -1909,7 +1913,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1962,13 +1966,13 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>72</v>
@@ -1982,10 +1986,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2008,7 +2012,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2037,11 +2041,11 @@
         <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>72</v>
@@ -2059,7 +2063,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -2079,10 +2083,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2090,7 +2094,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2105,7 +2109,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2158,10 +2162,10 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -2178,10 +2182,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2189,7 +2193,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2204,7 +2208,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2257,10 +2261,10 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2277,10 +2281,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2288,7 +2292,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2303,7 +2307,7 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2332,32 +2336,32 @@
         <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2374,10 +2378,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2385,7 +2389,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2400,7 +2404,7 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2453,10 +2457,10 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
@@ -2473,10 +2477,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2484,7 +2488,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2499,7 +2503,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2528,11 +2532,11 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>72</v>
@@ -2550,10 +2554,10 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -2570,10 +2574,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2581,7 +2585,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2596,7 +2600,7 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2649,10 +2653,10 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
@@ -2669,10 +2673,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2680,7 +2684,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2695,7 +2699,7 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2724,32 +2728,32 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
@@ -2766,10 +2770,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2777,10 +2781,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2792,7 +2796,7 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2845,13 +2849,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
@@ -2865,10 +2869,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2876,10 +2880,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -2891,7 +2895,7 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2920,35 +2924,35 @@
         <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -2962,10 +2966,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2973,10 +2977,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -2988,7 +2992,7 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -3017,35 +3021,35 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
@@ -3059,10 +3063,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3070,10 +3074,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3085,11 +3089,11 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3140,13 +3144,13 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3160,10 +3164,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3171,7 +3175,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>73</v>
@@ -3186,7 +3190,7 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3239,10 +3243,10 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
@@ -3251,7 +3255,7 @@
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3259,10 +3263,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3270,7 +3274,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -3285,13 +3289,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3342,10 +3346,10 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3357,26 +3361,26 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3388,16 +3392,16 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3435,42 +3439,42 @@
         <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3493,18 +3497,18 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>72</v>
@@ -3522,11 +3526,11 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>72</v>
@@ -3544,7 +3548,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3564,10 +3568,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3590,18 +3594,18 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>72</v>
@@ -3619,11 +3623,11 @@
         <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>72</v>
@@ -3641,7 +3645,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -3661,10 +3665,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3672,7 +3676,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -3687,7 +3691,7 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3716,32 +3720,32 @@
         <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -3758,10 +3762,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3784,7 +3788,7 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3837,7 +3841,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -3857,10 +3861,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3868,10 +3872,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3883,7 +3887,7 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3936,13 +3940,13 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
@@ -3956,10 +3960,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3967,10 +3971,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
@@ -3982,7 +3986,7 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -4035,13 +4039,13 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>72</v>
@@ -4055,10 +4059,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4066,10 +4070,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4081,7 +4085,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -4134,13 +4138,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4154,10 +4158,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4165,10 +4169,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4180,7 +4184,7 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4233,19 +4237,19 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>72</v>
@@ -4253,10 +4257,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4264,7 +4268,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -4279,13 +4283,13 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4336,10 +4340,10 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
@@ -4351,26 +4355,26 @@
         <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4382,16 +4386,16 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4429,42 +4433,42 @@
         <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4487,18 +4491,18 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>72</v>
@@ -4516,11 +4520,11 @@
         <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>72</v>
@@ -4538,7 +4542,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -4558,10 +4562,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4584,18 +4588,18 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>72</v>
@@ -4613,11 +4617,11 @@
         <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>72</v>
@@ -4635,7 +4639,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -4655,10 +4659,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4666,7 +4670,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -4681,7 +4685,7 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4734,10 +4738,10 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -4754,10 +4758,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4765,7 +4769,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -4780,7 +4784,7 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -4833,10 +4837,10 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -4853,10 +4857,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4864,10 +4868,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -4879,7 +4883,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4932,13 +4936,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
@@ -4952,10 +4956,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4963,10 +4967,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -4978,7 +4982,7 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -5031,19 +5035,19 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>72</v>
@@ -5051,10 +5055,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5062,7 +5066,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -5077,13 +5081,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5134,10 +5138,10 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
@@ -5149,26 +5153,26 @@
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5180,16 +5184,16 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5227,42 +5231,42 @@
         <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5285,7 +5289,7 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5338,7 +5342,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -5358,10 +5362,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5369,7 +5373,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -5384,7 +5388,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5437,10 +5441,10 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -5457,10 +5461,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5483,14 +5487,14 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
@@ -5536,7 +5540,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -5556,10 +5560,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5567,7 +5571,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -5582,7 +5586,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5635,10 +5639,10 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -5655,10 +5659,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5666,7 +5670,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -5681,7 +5685,7 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5734,10 +5738,10 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
@@ -5754,10 +5758,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5765,7 +5769,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
@@ -5780,7 +5784,7 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5833,10 +5837,10 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>73</v>
@@ -5853,10 +5857,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5864,7 +5868,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -5879,7 +5883,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5932,10 +5936,10 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -5952,10 +5956,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -5963,7 +5967,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -5978,7 +5982,7 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -6031,10 +6035,10 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
@@ -6051,10 +6055,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6062,7 +6066,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6077,7 +6081,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6130,10 +6134,10 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6161,7 +6165,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -6176,7 +6180,7 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6229,10 +6233,10 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
@@ -6249,10 +6253,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6260,7 +6264,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -6275,7 +6279,7 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -6328,10 +6332,10 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
@@ -6348,10 +6352,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6359,7 +6363,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -6374,7 +6378,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6427,10 +6431,10 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
@@ -6447,10 +6451,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6458,7 +6462,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -6473,7 +6477,7 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6526,10 +6530,10 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
@@ -6546,10 +6550,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6557,7 +6561,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -6572,7 +6576,7 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6625,10 +6629,10 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
@@ -6645,10 +6649,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6656,7 +6660,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
@@ -6671,7 +6675,7 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -6724,10 +6728,10 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
@@ -6744,10 +6748,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -6755,10 +6759,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>72</v>
@@ -6770,7 +6774,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6823,19 +6827,19 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -6843,10 +6847,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -6854,7 +6858,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
@@ -6869,13 +6873,13 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -6926,10 +6930,10 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
@@ -6941,26 +6945,26 @@
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>72</v>
@@ -6972,16 +6976,16 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7019,42 +7023,42 @@
         <v>72</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7077,7 +7081,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -7130,7 +7134,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -7150,10 +7154,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7161,7 +7165,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -7176,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -7229,10 +7233,10 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -7249,10 +7253,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7260,7 +7264,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>73</v>
@@ -7275,7 +7279,7 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -7328,10 +7332,10 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>73</v>
@@ -7348,10 +7352,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7359,7 +7363,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
@@ -7374,7 +7378,7 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -7427,10 +7431,10 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>73</v>
@@ -7447,10 +7451,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7458,7 +7462,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>73</v>
@@ -7473,7 +7477,7 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -7526,10 +7530,10 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>73</v>
@@ -7546,10 +7550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7557,7 +7561,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>73</v>
@@ -7572,7 +7576,7 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -7625,10 +7629,10 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>73</v>
@@ -7645,10 +7649,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7656,10 +7660,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>72</v>
@@ -7671,7 +7675,7 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -7724,13 +7728,13 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>72</v>
@@ -7744,10 +7748,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -7755,10 +7759,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -7770,7 +7774,7 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -7823,19 +7827,19 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>72</v>
@@ -7843,10 +7847,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -7854,7 +7858,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>73</v>
@@ -7869,13 +7873,13 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -7926,10 +7930,10 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>73</v>
@@ -7941,26 +7945,26 @@
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>72</v>
@@ -7972,16 +7976,16 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -8019,42 +8023,42 @@
         <v>72</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8077,18 +8081,18 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>72</v>
@@ -8106,11 +8110,11 @@
         <v>72</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>72</v>
@@ -8128,7 +8132,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -8148,10 +8152,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8174,7 +8178,7 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -8227,7 +8231,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>

--- a/docs/cda-logical-model/StructureDefinition-Observation.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -383,7 +383,7 @@
     <t>Observation.classCode</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActClassObservation|2.0.0</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAActClassObservation</t>
   </si>
   <si>
     <t>Observation.moodCode</t>
@@ -471,7 +471,7 @@
     <t>Observation.interpretationCode</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ObservationInterpretation</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAObservationInterpretation</t>
   </si>
   <si>
     <t>Observation.methodCode</t>
@@ -599,7 +599,7 @@
     <t>REFV</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActRelationshipType|2.0.0</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAActRelationshipType</t>
   </si>
   <si>
     <t>Observation.referenceRange.observationRange</t>
